--- a/Code/Results/Cases/Case_5_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.567322799553665</v>
+        <v>0.947645898192377</v>
       </c>
       <c r="C2">
-        <v>0.6403844818218829</v>
+        <v>0.1719206942726998</v>
       </c>
       <c r="D2">
-        <v>0.3340049599323436</v>
+        <v>0.1443690170293905</v>
       </c>
       <c r="E2">
-        <v>0.2010331850242224</v>
+        <v>0.0911239541133213</v>
       </c>
       <c r="F2">
-        <v>6.518123767298107</v>
+        <v>3.037772572775197</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9904599414115225</v>
+        <v>0.3725926983130847</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.192816826049068</v>
+        <v>0.8641610323122677</v>
       </c>
       <c r="C3">
-        <v>0.5462845433522432</v>
+        <v>0.150468738092485</v>
       </c>
       <c r="D3">
-        <v>0.2945346180772077</v>
+        <v>0.1336508942512609</v>
       </c>
       <c r="E3">
-        <v>0.1739465713803909</v>
+        <v>0.08435741998362545</v>
       </c>
       <c r="F3">
-        <v>5.688664823310859</v>
+        <v>2.820701146081205</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8469051482029002</v>
+        <v>0.3392264900062472</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.969304830060651</v>
+        <v>0.8137861859623001</v>
       </c>
       <c r="C4">
-        <v>0.4901942494324487</v>
+        <v>0.1374226980947242</v>
       </c>
       <c r="D4">
-        <v>0.2709809819063764</v>
+        <v>0.127071828517586</v>
       </c>
       <c r="E4">
-        <v>0.157807364147807</v>
+        <v>0.08024515227909035</v>
       </c>
       <c r="F4">
-        <v>5.193410502040393</v>
+        <v>2.688233000857025</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7612921904015195</v>
+        <v>0.3190326487632831</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.879585232494946</v>
+        <v>0.7934772783993367</v>
       </c>
       <c r="C5">
-        <v>0.4676879109450738</v>
+        <v>0.1321368024237302</v>
       </c>
       <c r="D5">
-        <v>0.2615254139065541</v>
+        <v>0.1243906508097012</v>
       </c>
       <c r="E5">
-        <v>0.1513353218760756</v>
+        <v>0.07857969643593066</v>
       </c>
       <c r="F5">
-        <v>4.994570983839708</v>
+        <v>2.634446044827456</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7269407113842234</v>
+        <v>0.3108757524015573</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.86476283746768</v>
+        <v>0.7901181458480835</v>
       </c>
       <c r="C6">
-        <v>0.4639699749492081</v>
+        <v>0.131260892179256</v>
       </c>
       <c r="D6">
-        <v>0.259963172123193</v>
+        <v>0.1239454154905246</v>
       </c>
       <c r="E6">
-        <v>0.1502664640644085</v>
+        <v>0.07830376266251449</v>
       </c>
       <c r="F6">
-        <v>4.961719020888665</v>
+        <v>2.625526243975798</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7212663909488697</v>
+        <v>0.3095256281440015</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.968089634393493</v>
+        <v>0.8135114095485676</v>
       </c>
       <c r="C7">
-        <v>0.489889390473337</v>
+        <v>0.1373512887153652</v>
       </c>
       <c r="D7">
-        <v>0.2708529182435058</v>
+        <v>0.1270356706803284</v>
       </c>
       <c r="E7">
-        <v>0.1577196788981752</v>
+        <v>0.08022264999092954</v>
       </c>
       <c r="F7">
-        <v>5.190717493021765</v>
+        <v>2.687506835130478</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7608268650671519</v>
+        <v>0.318922351340909</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.436693289733057</v>
+        <v>0.9186745346849534</v>
       </c>
       <c r="C8">
-        <v>0.6075412672165328</v>
+        <v>0.1644973286930451</v>
       </c>
       <c r="D8">
-        <v>0.320235842585717</v>
+        <v>0.1406726273254151</v>
       </c>
       <c r="E8">
-        <v>0.1915794440844465</v>
+        <v>0.08878184398055566</v>
       </c>
       <c r="F8">
-        <v>6.228860909848947</v>
+        <v>2.962751197177766</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9403729567673196</v>
+        <v>0.3610262927193943</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.420220839856654</v>
+        <v>1.132087899232772</v>
       </c>
       <c r="C9">
-        <v>0.8555642638527559</v>
+        <v>0.2187797939818665</v>
       </c>
       <c r="D9">
-        <v>0.4239881147745876</v>
+        <v>0.1674595635135319</v>
       </c>
       <c r="E9">
-        <v>0.2628817578614004</v>
+        <v>0.1059191192271101</v>
       </c>
       <c r="F9">
-        <v>8.404953572649845</v>
+        <v>3.509445478715264</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.317827578950855</v>
+        <v>0.4459890776067965</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.205059692867508</v>
+        <v>1.293515007262101</v>
       </c>
       <c r="C10">
-        <v>1.055014523894499</v>
+        <v>0.2593791426511984</v>
       </c>
       <c r="D10">
-        <v>0.5069578932668151</v>
+        <v>0.1872102887500091</v>
       </c>
       <c r="E10">
-        <v>0.3199365437950163</v>
+        <v>0.1187487321034979</v>
       </c>
       <c r="F10">
-        <v>10.13775005213827</v>
+        <v>3.916036404187508</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.619540956318673</v>
+        <v>0.5099789378127184</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.582235339107569</v>
+        <v>1.368014845915184</v>
       </c>
       <c r="C11">
-        <v>1.151444947855168</v>
+        <v>0.2780223861166178</v>
       </c>
       <c r="D11">
-        <v>0.5468937853424904</v>
+        <v>0.1962201569249089</v>
       </c>
       <c r="E11">
-        <v>0.3473894711590546</v>
+        <v>0.1246424250083251</v>
       </c>
       <c r="F11">
-        <v>10.96904575498542</v>
+        <v>4.102233106722792</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.76468148595616</v>
+        <v>0.539453944972621</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.728671303095894</v>
+        <v>1.396383658375896</v>
       </c>
       <c r="C12">
-        <v>1.188992628596111</v>
+        <v>0.2851085723081894</v>
       </c>
       <c r="D12">
-        <v>0.5624095337821018</v>
+        <v>0.199636325662766</v>
       </c>
       <c r="E12">
-        <v>0.3580524465233452</v>
+        <v>0.1268828873086605</v>
       </c>
       <c r="F12">
-        <v>11.29150870771605</v>
+        <v>4.172930926557683</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.821055196511338</v>
+        <v>0.5506698174898901</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.69696010869751</v>
+        <v>1.390266863196132</v>
       </c>
       <c r="C13">
-        <v>1.180856245325742</v>
+        <v>0.2835812401042119</v>
       </c>
       <c r="D13">
-        <v>0.5590490345168178</v>
+        <v>0.198900388762894</v>
       </c>
       <c r="E13">
-        <v>0.3557431490842404</v>
+        <v>0.1263999727389233</v>
       </c>
       <c r="F13">
-        <v>11.22169218015699</v>
+        <v>4.157696289548142</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.808846170468996</v>
+        <v>0.5482518343006433</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.594205740234713</v>
+        <v>1.370345588116095</v>
       </c>
       <c r="C14">
-        <v>1.154511944142712</v>
+        <v>0.278604834273807</v>
       </c>
       <c r="D14">
-        <v>0.5481618922446501</v>
+        <v>0.1965011163647432</v>
       </c>
       <c r="E14">
-        <v>0.348261027514674</v>
+        <v>0.1248265736014886</v>
       </c>
       <c r="F14">
-        <v>10.99541157538704</v>
+        <v>4.10804560182288</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.769289258678867</v>
+        <v>0.5403755826418006</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.531759480018252</v>
+        <v>1.358163845118554</v>
       </c>
       <c r="C15">
-        <v>1.138516809184239</v>
+        <v>0.2755601190016819</v>
       </c>
       <c r="D15">
-        <v>0.5415469773876112</v>
+        <v>0.1950320774745649</v>
       </c>
       <c r="E15">
-        <v>0.3437145397217449</v>
+        <v>0.1238639591919863</v>
       </c>
       <c r="F15">
-        <v>10.85785663679366</v>
+        <v>4.077658098306074</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.74525276076136</v>
+        <v>0.5355582784261657</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.180872905401316</v>
+        <v>1.2886680607117</v>
       </c>
       <c r="C16">
-        <v>1.048844255823525</v>
+        <v>0.2581643839288574</v>
       </c>
       <c r="D16">
-        <v>0.5043983521626956</v>
+        <v>0.1866220393957292</v>
       </c>
       <c r="E16">
-        <v>0.3181767391640449</v>
+        <v>0.1183647543156567</v>
       </c>
       <c r="F16">
-        <v>10.08440813786041</v>
+        <v>3.903893859664663</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.610236750044422</v>
+        <v>0.5080601833441705</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.971232549630543</v>
+        <v>1.246310498272237</v>
       </c>
       <c r="C17">
-        <v>0.9954286127736225</v>
+        <v>0.2475382572563944</v>
       </c>
       <c r="D17">
-        <v>0.4822204202977503</v>
+        <v>0.1814696997102487</v>
       </c>
       <c r="E17">
-        <v>0.3029271787291989</v>
+        <v>0.1150061561221705</v>
       </c>
       <c r="F17">
-        <v>9.621900042014886</v>
+        <v>3.797619838831281</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.529607979293445</v>
+        <v>0.4912858816138481</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.852498704201423</v>
+        <v>1.22204761993595</v>
       </c>
       <c r="C18">
-        <v>0.9652265979968604</v>
+        <v>0.2414427244910939</v>
       </c>
       <c r="D18">
-        <v>0.4696651045522913</v>
+        <v>0.1785085358093994</v>
       </c>
       <c r="E18">
-        <v>0.2942933911938255</v>
+        <v>0.1130797618720294</v>
       </c>
       <c r="F18">
-        <v>9.359823249952257</v>
+        <v>3.736609521624132</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.483955223041718</v>
+        <v>0.4816720616151855</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.812595369342432</v>
+        <v>1.213849691232497</v>
       </c>
       <c r="C19">
-        <v>0.9550845651533848</v>
+        <v>0.239381647683814</v>
       </c>
       <c r="D19">
-        <v>0.4654464934756675</v>
+        <v>0.1775063145926623</v>
       </c>
       <c r="E19">
-        <v>0.2913923378311196</v>
+        <v>0.1124284306039414</v>
       </c>
       <c r="F19">
-        <v>9.271726262763053</v>
+        <v>3.715972003021477</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.468614657267651</v>
+        <v>0.4784228286096948</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.993353459505613</v>
+        <v>1.250809146951781</v>
       </c>
       <c r="C20">
-        <v>1.001059473373601</v>
+        <v>0.2486677266169863</v>
       </c>
       <c r="D20">
-        <v>0.4845600048423933</v>
+        <v>0.1820179292708985</v>
       </c>
       <c r="E20">
-        <v>0.3045359667897429</v>
+        <v>0.115363124757728</v>
       </c>
       <c r="F20">
-        <v>9.670716768668314</v>
+        <v>3.80892083470809</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.538114432691742</v>
+        <v>0.4930679707592134</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.624282777541055</v>
+        <v>1.376192646304105</v>
       </c>
       <c r="C21">
-        <v>1.162219959282766</v>
+        <v>0.2800657982991197</v>
       </c>
       <c r="D21">
-        <v>0.5513483385755933</v>
+        <v>0.1972057176922988</v>
       </c>
       <c r="E21">
-        <v>0.3504509858644695</v>
+        <v>0.1252884812071002</v>
       </c>
       <c r="F21">
-        <v>11.06165403637158</v>
+        <v>4.122623986738404</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.780867217545619</v>
+        <v>0.5426875401806939</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.058121945519019</v>
+        <v>1.459057083136884</v>
       </c>
       <c r="C22">
-        <v>1.273699713093549</v>
+        <v>0.3007407355483451</v>
       </c>
       <c r="D22">
-        <v>0.5973386248233794</v>
+        <v>0.2071573736807863</v>
       </c>
       <c r="E22">
-        <v>0.3820496859465266</v>
+        <v>0.1318258725214534</v>
       </c>
       <c r="F22">
-        <v>12.0163688770586</v>
+        <v>4.328755178232086</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.947931728769177</v>
+        <v>0.5754342946179776</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.824326087097347</v>
+        <v>1.414745303010363</v>
       </c>
       <c r="C23">
-        <v>1.213553484179215</v>
+        <v>0.2896915535640119</v>
       </c>
       <c r="D23">
-        <v>0.5725479696839955</v>
+        <v>0.2018434122698523</v>
       </c>
       <c r="E23">
-        <v>0.3650189122134719</v>
+        <v>0.1283319836148209</v>
       </c>
       <c r="F23">
-        <v>11.50205841707242</v>
+        <v>4.218633886059422</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.857886632907551</v>
+        <v>0.5579270984155329</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.983347068327475</v>
+        <v>1.248775030824447</v>
       </c>
       <c r="C24">
-        <v>0.9985121963022436</v>
+        <v>0.2481570513538145</v>
       </c>
       <c r="D24">
-        <v>0.4835016766742228</v>
+        <v>0.1817700716726165</v>
       </c>
       <c r="E24">
-        <v>0.3038082219704989</v>
+        <v>0.1152017252236348</v>
       </c>
       <c r="F24">
-        <v>9.648634918794528</v>
+        <v>3.803811381126224</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.534266499223861</v>
+        <v>0.4922621951015742</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.145127747360846</v>
+        <v>1.073558865654263</v>
       </c>
       <c r="C25">
-        <v>0.7860020716546217</v>
+        <v>0.2039746313485296</v>
       </c>
       <c r="D25">
-        <v>0.3949464668721561</v>
+        <v>0.1602037670672019</v>
       </c>
       <c r="E25">
-        <v>0.2429124213883469</v>
+        <v>0.101242830690488</v>
       </c>
       <c r="F25">
-        <v>7.796754427442238</v>
+        <v>3.360735064642597</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.212176977132451</v>
+        <v>0.4227369119627582</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.947645898192377</v>
+        <v>2.567322799553835</v>
       </c>
       <c r="C2">
-        <v>0.1719206942726998</v>
+        <v>0.6403844818219113</v>
       </c>
       <c r="D2">
-        <v>0.1443690170293905</v>
+        <v>0.3340049599327983</v>
       </c>
       <c r="E2">
-        <v>0.0911239541133213</v>
+        <v>0.2010331850241727</v>
       </c>
       <c r="F2">
-        <v>3.037772572775197</v>
+        <v>6.518123767298079</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3725926983130847</v>
+        <v>0.9904599414115509</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8641610323122677</v>
+        <v>2.192816826049068</v>
       </c>
       <c r="C3">
-        <v>0.150468738092485</v>
+        <v>0.5462845433521579</v>
       </c>
       <c r="D3">
-        <v>0.1336508942512609</v>
+        <v>0.2945346180771367</v>
       </c>
       <c r="E3">
-        <v>0.08435741998362545</v>
+        <v>0.1739465713804691</v>
       </c>
       <c r="F3">
-        <v>2.820701146081205</v>
+        <v>5.688664823311001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3392264900062472</v>
+        <v>0.8469051482029286</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8137861859623001</v>
+        <v>1.969304830060565</v>
       </c>
       <c r="C4">
-        <v>0.1374226980947242</v>
+        <v>0.4901942494324487</v>
       </c>
       <c r="D4">
-        <v>0.127071828517586</v>
+        <v>0.2709809819064759</v>
       </c>
       <c r="E4">
-        <v>0.08024515227909035</v>
+        <v>0.1578073641477786</v>
       </c>
       <c r="F4">
-        <v>2.688233000857025</v>
+        <v>5.193410502040365</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3190326487632831</v>
+        <v>0.7612921904015266</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7934772783993367</v>
+        <v>1.879585232495145</v>
       </c>
       <c r="C5">
-        <v>0.1321368024237302</v>
+        <v>0.4676879109448464</v>
       </c>
       <c r="D5">
-        <v>0.1243906508097012</v>
+        <v>0.2615254139065399</v>
       </c>
       <c r="E5">
-        <v>0.07857969643593066</v>
+        <v>0.1513353218760969</v>
       </c>
       <c r="F5">
-        <v>2.634446044827456</v>
+        <v>4.994570983839822</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3108757524015573</v>
+        <v>0.7269407113842377</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7901181458480835</v>
+        <v>1.864762837467566</v>
       </c>
       <c r="C6">
-        <v>0.131260892179256</v>
+        <v>0.4639699749494355</v>
       </c>
       <c r="D6">
-        <v>0.1239454154905246</v>
+        <v>0.2599631721230509</v>
       </c>
       <c r="E6">
-        <v>0.07830376266251449</v>
+        <v>0.150266464064444</v>
       </c>
       <c r="F6">
-        <v>2.625526243975798</v>
+        <v>4.961719020888665</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3095256281440015</v>
+        <v>0.7212663909488768</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8135114095485676</v>
+        <v>1.968089634393351</v>
       </c>
       <c r="C7">
-        <v>0.1373512887153652</v>
+        <v>0.4898893904723991</v>
       </c>
       <c r="D7">
-        <v>0.1270356706803284</v>
+        <v>0.270852918243321</v>
       </c>
       <c r="E7">
-        <v>0.08022264999092954</v>
+        <v>0.1577196788981468</v>
       </c>
       <c r="F7">
-        <v>2.687506835130478</v>
+        <v>5.190717493021765</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.318922351340909</v>
+        <v>0.7608268650671377</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9186745346849534</v>
+        <v>2.436693289732773</v>
       </c>
       <c r="C8">
-        <v>0.1644973286930451</v>
+        <v>0.6075412672172718</v>
       </c>
       <c r="D8">
-        <v>0.1406726273254151</v>
+        <v>0.3202358425852765</v>
       </c>
       <c r="E8">
-        <v>0.08878184398055566</v>
+        <v>0.1915794440843968</v>
       </c>
       <c r="F8">
-        <v>2.962751197177766</v>
+        <v>6.228860909848919</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3610262927193943</v>
+        <v>0.9403729567672698</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.132087899232772</v>
+        <v>3.420220839856427</v>
       </c>
       <c r="C9">
-        <v>0.2187797939818665</v>
+        <v>0.8555642638522727</v>
       </c>
       <c r="D9">
-        <v>0.1674595635135319</v>
+        <v>0.4239881147741897</v>
       </c>
       <c r="E9">
-        <v>0.1059191192271101</v>
+        <v>0.2628817578614289</v>
       </c>
       <c r="F9">
-        <v>3.509445478715264</v>
+        <v>8.40495357264976</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4459890776067965</v>
+        <v>1.317827578950855</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.293515007262101</v>
+        <v>4.205059692867053</v>
       </c>
       <c r="C10">
-        <v>0.2593791426511984</v>
+        <v>1.055014523894499</v>
       </c>
       <c r="D10">
-        <v>0.1872102887500091</v>
+        <v>0.5069578932665877</v>
       </c>
       <c r="E10">
-        <v>0.1187487321034979</v>
+        <v>0.319936543794995</v>
       </c>
       <c r="F10">
-        <v>3.916036404187508</v>
+        <v>10.13775005213824</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5099789378127184</v>
+        <v>1.619540956318687</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.368014845915184</v>
+        <v>4.582235339107172</v>
       </c>
       <c r="C11">
-        <v>0.2780223861166178</v>
+        <v>1.151444947854685</v>
       </c>
       <c r="D11">
-        <v>0.1962201569249089</v>
+        <v>0.5468937853425473</v>
       </c>
       <c r="E11">
-        <v>0.1246424250083251</v>
+        <v>0.3473894711590617</v>
       </c>
       <c r="F11">
-        <v>4.102233106722792</v>
+        <v>10.96904575498542</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.539453944972621</v>
+        <v>1.764681485956203</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.396383658375896</v>
+        <v>4.728671303095325</v>
       </c>
       <c r="C12">
-        <v>0.2851085723081894</v>
+        <v>1.188992628595145</v>
       </c>
       <c r="D12">
-        <v>0.199636325662766</v>
+        <v>0.562409533782386</v>
       </c>
       <c r="E12">
-        <v>0.1268828873086605</v>
+        <v>0.3580524465233879</v>
       </c>
       <c r="F12">
-        <v>4.172930926557683</v>
+        <v>11.29150870771588</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5506698174898901</v>
+        <v>1.821055196511296</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.390266863196132</v>
+        <v>4.69696010869734</v>
       </c>
       <c r="C13">
-        <v>0.2835812401042119</v>
+        <v>1.180856245324918</v>
       </c>
       <c r="D13">
-        <v>0.198900388762894</v>
+        <v>0.5590490345166188</v>
       </c>
       <c r="E13">
-        <v>0.1263999727389233</v>
+        <v>0.3557431490842333</v>
       </c>
       <c r="F13">
-        <v>4.157696289548142</v>
+        <v>11.22169218015699</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5482518343006433</v>
+        <v>1.808846170469053</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.370345588116095</v>
+        <v>4.594205740234599</v>
       </c>
       <c r="C14">
-        <v>0.278604834273807</v>
+        <v>1.154511944142314</v>
       </c>
       <c r="D14">
-        <v>0.1965011163647432</v>
+        <v>0.5481618922444795</v>
       </c>
       <c r="E14">
-        <v>0.1248265736014886</v>
+        <v>0.3482610275147238</v>
       </c>
       <c r="F14">
-        <v>4.10804560182288</v>
+        <v>10.99541157538704</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5403755826418006</v>
+        <v>1.769289258678896</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.358163845118554</v>
+        <v>4.531759480018252</v>
       </c>
       <c r="C15">
-        <v>0.2755601190016819</v>
+        <v>1.138516809183727</v>
       </c>
       <c r="D15">
-        <v>0.1950320774745649</v>
+        <v>0.5415469773871848</v>
       </c>
       <c r="E15">
-        <v>0.1238639591919863</v>
+        <v>0.3437145397217023</v>
       </c>
       <c r="F15">
-        <v>4.077658098306074</v>
+        <v>10.85785663679354</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5355582784261657</v>
+        <v>1.745252760761346</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.2886680607117</v>
+        <v>4.180872905401429</v>
       </c>
       <c r="C16">
-        <v>0.2581643839288574</v>
+        <v>1.048844255824747</v>
       </c>
       <c r="D16">
-        <v>0.1866220393957292</v>
+        <v>0.5043983521626387</v>
       </c>
       <c r="E16">
-        <v>0.1183647543156567</v>
+        <v>0.3181767391641159</v>
       </c>
       <c r="F16">
-        <v>3.903893859664663</v>
+        <v>10.08440813786046</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5080601833441705</v>
+        <v>1.610236750044436</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.246310498272237</v>
+        <v>3.971232549630543</v>
       </c>
       <c r="C17">
-        <v>0.2475382572563944</v>
+        <v>0.9954286127726562</v>
       </c>
       <c r="D17">
-        <v>0.1814696997102487</v>
+        <v>0.4822204202978639</v>
       </c>
       <c r="E17">
-        <v>0.1150061561221705</v>
+        <v>0.3029271787291847</v>
       </c>
       <c r="F17">
-        <v>3.797619838831281</v>
+        <v>9.621900042015</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4912858816138481</v>
+        <v>1.529607979293431</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.22204761993595</v>
+        <v>3.852498704201139</v>
       </c>
       <c r="C18">
-        <v>0.2414427244910939</v>
+        <v>0.9652265979963772</v>
       </c>
       <c r="D18">
-        <v>0.1785085358093994</v>
+        <v>0.4696651045525186</v>
       </c>
       <c r="E18">
-        <v>0.1130797618720294</v>
+        <v>0.2942933911937828</v>
       </c>
       <c r="F18">
-        <v>3.736609521624132</v>
+        <v>9.359823249952257</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4816720616151855</v>
+        <v>1.48395522304169</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.213849691232497</v>
+        <v>3.812595369342716</v>
       </c>
       <c r="C19">
-        <v>0.239381647683814</v>
+        <v>0.9550845651542943</v>
       </c>
       <c r="D19">
-        <v>0.1775063145926623</v>
+        <v>0.4654464934752696</v>
       </c>
       <c r="E19">
-        <v>0.1124284306039414</v>
+        <v>0.2913923378311267</v>
       </c>
       <c r="F19">
-        <v>3.715972003021477</v>
+        <v>9.271726262763053</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4784228286096948</v>
+        <v>1.468614657267651</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.250809146951781</v>
+        <v>3.993353459505727</v>
       </c>
       <c r="C20">
-        <v>0.2486677266169863</v>
+        <v>1.001059473373175</v>
       </c>
       <c r="D20">
-        <v>0.1820179292708985</v>
+        <v>0.4845600048426206</v>
       </c>
       <c r="E20">
-        <v>0.115363124757728</v>
+        <v>0.3045359667897998</v>
       </c>
       <c r="F20">
-        <v>3.80892083470809</v>
+        <v>9.670716768668456</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4930679707592134</v>
+        <v>1.538114432691799</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.376192646304105</v>
+        <v>4.624282777541225</v>
       </c>
       <c r="C21">
-        <v>0.2800657982991197</v>
+        <v>1.162219959282822</v>
       </c>
       <c r="D21">
-        <v>0.1972057176922988</v>
+        <v>0.5513483385754512</v>
       </c>
       <c r="E21">
-        <v>0.1252884812071002</v>
+        <v>0.3504509858643772</v>
       </c>
       <c r="F21">
-        <v>4.122623986738404</v>
+        <v>11.06165403637146</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5426875401806939</v>
+        <v>1.780867217545563</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.459057083136884</v>
+        <v>5.05812194551919</v>
       </c>
       <c r="C22">
-        <v>0.3007407355483451</v>
+        <v>1.273699713093976</v>
       </c>
       <c r="D22">
-        <v>0.2071573736807863</v>
+        <v>0.5973386248228962</v>
       </c>
       <c r="E22">
-        <v>0.1318258725214534</v>
+        <v>0.3820496859464626</v>
       </c>
       <c r="F22">
-        <v>4.328755178232086</v>
+        <v>12.01636887705871</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5754342946179776</v>
+        <v>1.947931728769163</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.414745303010363</v>
+        <v>4.824326087097347</v>
       </c>
       <c r="C23">
-        <v>0.2896915535640119</v>
+        <v>1.213553484178419</v>
       </c>
       <c r="D23">
-        <v>0.2018434122698523</v>
+        <v>0.5725479696837965</v>
       </c>
       <c r="E23">
-        <v>0.1283319836148209</v>
+        <v>0.3650189122134648</v>
       </c>
       <c r="F23">
-        <v>4.218633886059422</v>
+        <v>11.50205841707236</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5579270984155329</v>
+        <v>1.857886632907523</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.248775030824447</v>
+        <v>3.983347068327646</v>
       </c>
       <c r="C24">
-        <v>0.2481570513538145</v>
+        <v>0.99851219630267</v>
       </c>
       <c r="D24">
-        <v>0.1817700716726165</v>
+        <v>0.483501676674166</v>
       </c>
       <c r="E24">
-        <v>0.1152017252236348</v>
+        <v>0.3038082219705416</v>
       </c>
       <c r="F24">
-        <v>3.803811381126224</v>
+        <v>9.648634918794585</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4922621951015742</v>
+        <v>1.534266499223847</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.073558865654263</v>
+        <v>3.145127747360789</v>
       </c>
       <c r="C25">
-        <v>0.2039746313485296</v>
+        <v>0.7860020716545364</v>
       </c>
       <c r="D25">
-        <v>0.1602037670672019</v>
+        <v>0.3949464668721134</v>
       </c>
       <c r="E25">
-        <v>0.101242830690488</v>
+        <v>0.2429124213882048</v>
       </c>
       <c r="F25">
-        <v>3.360735064642597</v>
+        <v>7.796754427442295</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4227369119627582</v>
+        <v>1.212176977132437</v>
       </c>
       <c r="N25">
         <v>0</v>
